--- a/HEA_Data/Quinary.xlsx
+++ b/HEA_Data/Quinary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ndtran/Tohoku/HEA/Wang_HEA_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinming/PycharmProjects/HEA_project/HEA_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{976EBCDD-3651-FD4F-B8E9-066548601170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD45595-DFDA-FA49-85A6-BB777FA3219B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="2400" windowWidth="35460" windowHeight="24260" xr2:uid="{4286922A-5A65-EF43-B6E5-66252B748A39}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{4286922A-5A65-EF43-B6E5-66252B748A39}"/>
   </bookViews>
   <sheets>
     <sheet name="FCC" sheetId="1" r:id="rId1"/>
@@ -158,11 +158,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -197,6 +197,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,7 +237,7 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -246,7 +253,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -544,11 +551,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C79F31-9800-B742-8456-B681A1D92D01}">
   <dimension ref="A3:AE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="30.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -559,7 +566,7 @@
     <col min="21" max="21" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -594,7 +601,7 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -627,7 +634,7 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -673,7 +680,7 @@
       <c r="AA5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -699,7 +706,7 @@
       <c r="AA6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -745,7 +752,7 @@
       <c r="AA7" s="3"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -791,7 +798,7 @@
       <c r="AA8" s="3"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -837,7 +844,7 @@
       <c r="AA9" s="3"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -883,7 +890,7 @@
       <c r="AA10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -929,7 +936,7 @@
       <c r="AA11" s="3"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -975,7 +982,7 @@
       <c r="AA12" s="3"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1021,7 +1028,7 @@
       <c r="AA13" s="3"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1067,7 +1074,7 @@
       <c r="AA14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1113,7 +1120,7 @@
       <c r="AA15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1159,7 +1166,7 @@
       <c r="AA16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1205,7 +1212,7 @@
       <c r="AA17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1251,7 +1258,7 @@
       <c r="AA18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
@@ -1277,7 +1284,7 @@
       <c r="AA19" s="3"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
@@ -1303,7 +1310,7 @@
       <c r="AA20" s="3"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -1349,7 +1356,7 @@
       <c r="AA21" s="5"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -1395,7 +1402,7 @@
       <c r="AA22" s="5"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -1441,7 +1448,7 @@
       <c r="AA23" s="5"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -1487,7 +1494,7 @@
       <c r="AA24" s="5"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -1533,7 +1540,7 @@
       <c r="AA25" s="5"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1559,7 +1566,7 @@
       <c r="AA26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -1587,7 +1594,7 @@
       <c r="AA27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -1633,7 +1640,7 @@
       <c r="AA28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1679,7 +1686,7 @@
       <c r="AA29" s="3"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -1725,7 +1732,7 @@
       <c r="AA30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1751,7 +1758,7 @@
       <c r="AA31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1797,7 +1804,7 @@
       <c r="AA32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1823,7 +1830,7 @@
       <c r="AA33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -1869,7 +1876,7 @@
       <c r="AA34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="3"/>
@@ -1895,7 +1902,7 @@
       <c r="AA35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1941,7 +1948,7 @@
       <c r="AA36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="3"/>
@@ -1967,7 +1974,7 @@
       <c r="AA37" s="1"/>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -2013,7 +2020,7 @@
       <c r="AA38" s="1"/>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
@@ -2039,7 +2046,7 @@
       <c r="AA39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
       <c r="C40" s="1"/>
@@ -2065,7 +2072,7 @@
       <c r="AA40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30">
       <c r="A41" s="1"/>
       <c r="B41" s="3"/>
       <c r="C41" s="1"/>
@@ -2091,7 +2098,7 @@
       <c r="AA41" s="3"/>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30">
       <c r="A42" s="5" t="s">
         <v>37</v>
       </c>
@@ -2137,7 +2144,7 @@
       <c r="AA42" s="3"/>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30">
       <c r="A43" s="5" t="s">
         <v>38</v>
       </c>
@@ -2183,7 +2190,7 @@
       <c r="AA43" s="3"/>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30">
       <c r="A44" s="5" t="s">
         <v>39</v>
       </c>
@@ -2229,7 +2236,7 @@
       <c r="AA44" s="3"/>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30">
       <c r="A45" s="5" t="s">
         <v>40</v>
       </c>
@@ -2275,7 +2282,7 @@
       <c r="AA45" s="3"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30">
       <c r="A46" s="5" t="s">
         <v>41</v>
       </c>
@@ -2321,7 +2328,7 @@
       <c r="AA46" s="1"/>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2353,6 +2360,7 @@
       <c r="AD47" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2361,11 +2369,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942D5CFB-4584-4B45-B549-EFFAC2F9298D}">
   <dimension ref="A3:AE47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="167" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="30.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -2376,7 +2384,7 @@
     <col min="21" max="21" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -2401,7 +2409,7 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2424,7 +2432,7 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2460,7 +2468,7 @@
       <c r="Q5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2476,7 +2484,7 @@
       <c r="Q6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2512,7 +2520,7 @@
       <c r="Q7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -2548,7 +2556,7 @@
       <c r="Q8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2584,7 +2592,7 @@
       <c r="Q9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -2620,7 +2628,7 @@
       <c r="Q10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2656,7 +2664,7 @@
       <c r="Q11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -2692,7 +2700,7 @@
       <c r="Q12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -2728,7 +2736,7 @@
       <c r="Q13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -2764,7 +2772,7 @@
       <c r="Q14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -2800,7 +2808,7 @@
       <c r="Q15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -2836,7 +2844,7 @@
       <c r="Q16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2872,7 +2880,7 @@
       <c r="Q17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -2908,7 +2916,7 @@
       <c r="Q18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
@@ -2924,7 +2932,7 @@
       <c r="Q19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
@@ -2940,7 +2948,7 @@
       <c r="Q20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -2976,7 +2984,7 @@
       <c r="Q21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -3012,7 +3020,7 @@
       <c r="Q22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -3048,7 +3056,7 @@
       <c r="Q23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -3084,7 +3092,7 @@
       <c r="Q24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -3120,7 +3128,7 @@
       <c r="Q25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3136,7 +3144,7 @@
       <c r="Q26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3152,7 +3160,7 @@
       <c r="Q27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -3188,7 +3196,7 @@
       <c r="Q28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -3224,7 +3232,7 @@
       <c r="Q29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -3260,7 +3268,7 @@
       <c r="Q30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3276,7 +3284,7 @@
       <c r="Q31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -3312,7 +3320,7 @@
       <c r="Q32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3328,7 +3336,7 @@
       <c r="Q33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -3364,7 +3372,7 @@
       <c r="Q34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3380,41 +3388,43 @@
       <c r="Q35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>-6.9917199999999999</v>
+      </c>
+      <c r="C36" s="1">
+        <v>-1118.67</v>
+      </c>
       <c r="D36" s="1">
-        <v>7.0422099999999999</v>
+        <v>5.0500000000000003E-2</v>
       </c>
       <c r="E36" s="1">
-        <v>7.0917500000000002</v>
+        <v>0.10002999999999999</v>
       </c>
       <c r="F36" s="1">
-        <v>90.527000000000001</v>
+        <v>53.124000000000002</v>
       </c>
       <c r="G36" s="1">
-        <v>1.07</v>
+        <v>0.63</v>
       </c>
       <c r="H36" s="1">
-        <v>171.49</v>
+        <v>100.64</v>
       </c>
       <c r="I36" s="7">
         <v>1.17327</v>
       </c>
       <c r="J36" s="1">
-        <v>11.36</v>
+        <v>12.23</v>
       </c>
       <c r="M36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3430,7 +3440,7 @@
       <c r="Q37" s="1"/>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -3466,7 +3476,7 @@
       <c r="Q38" s="1"/>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3482,7 +3492,7 @@
       <c r="Q39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3498,7 +3508,7 @@
       <c r="Q40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3514,7 +3524,7 @@
       <c r="Q41" s="1"/>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30">
       <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
@@ -3550,7 +3560,7 @@
       <c r="Q42" s="1"/>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30">
       <c r="A43" s="1" t="s">
         <v>38</v>
       </c>
@@ -3586,7 +3596,7 @@
       <c r="Q43" s="1"/>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30">
       <c r="A44" s="1" t="s">
         <v>39</v>
       </c>
@@ -3622,7 +3632,7 @@
       <c r="Q44" s="1"/>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30">
       <c r="A45" s="1" t="s">
         <v>40</v>
       </c>
@@ -3658,7 +3668,7 @@
       <c r="Q45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30">
       <c r="A46" s="1" t="s">
         <v>41</v>
       </c>
@@ -3694,7 +3704,7 @@
       <c r="Q46" s="1"/>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3726,6 +3736,7 @@
       <c r="AD47" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>